--- a/SAIL_22_sandiego_fy18q1.xlsx
+++ b/SAIL_22_sandiego_fy18q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\UCSD\The Guardian\sail adjusted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC703C9-1993-426F-BB88-47BE55BC4560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CADB589-DAEE-4518-8B7B-775BA1A8EEA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13510" windowHeight="4210" xr2:uid="{06A31E25-0E77-4A0D-A3B7-50963972C74C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Measure</t>
   </si>
@@ -38,18 +38,12 @@
     <t>Measure Unit</t>
   </si>
   <si>
-    <t>Preferred Direction</t>
-  </si>
-  <si>
     <t>San Diego</t>
   </si>
   <si>
     <t>Benchmark</t>
   </si>
   <si>
-    <t>10th-50th-90th ptile</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
@@ -62,18 +56,12 @@
     <t>wct %</t>
   </si>
   <si>
-    <t>↑</t>
-  </si>
-  <si>
     <t>50.275</t>
   </si>
   <si>
     <t>61.683</t>
   </si>
   <si>
-    <t>42.491 - 52.095 - 61.683</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Specialty Care timely appointment, care and information</t>
   </si>
   <si>
@@ -83,9 +71,6 @@
     <t>59.031</t>
   </si>
   <si>
-    <t>41.792 - 50.464 - 59.031</t>
-  </si>
-  <si>
     <t xml:space="preserve">    c. Days Waited for Urgent Appointment (PCMH)</t>
   </si>
   <si>
@@ -95,9 +80,6 @@
     <t>51.245</t>
   </si>
   <si>
-    <t>28.976 - 40.458 - 51.245</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2. Wait times</t>
   </si>
   <si>
@@ -113,9 +95,6 @@
     <t>93.803</t>
   </si>
   <si>
-    <t>57.654 - 79.766 - 93.803</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Specialty care new patient wait time &lt;=30 days from create date</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>84.982</t>
   </si>
   <si>
-    <t>69.652 - 76.347 - 84.982</t>
-  </si>
-  <si>
     <t xml:space="preserve">    c. Mental health care new patient wait time &lt;=30 days from create date</t>
   </si>
   <si>
@@ -137,9 +113,6 @@
     <t>97.373</t>
   </si>
   <si>
-    <t>87.296 - 93.641 - 97.373</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3. Call center responsiveness</t>
   </si>
   <si>
@@ -149,18 +122,12 @@
     <t>seconds</t>
   </si>
   <si>
-    <t>↓</t>
-  </si>
-  <si>
     <t>49.044</t>
   </si>
   <si>
     <t>20.070</t>
   </si>
   <si>
-    <t>20.070 - 51.722 - 124.815</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Call center abandonment rate</t>
   </si>
   <si>
@@ -170,9 +137,6 @@
     <t>2.641</t>
   </si>
   <si>
-    <t>2.641 - 6.439 - 12.758</t>
-  </si>
-  <si>
     <t>Mental Health</t>
   </si>
   <si>
@@ -185,9 +149,6 @@
     <t>1.251</t>
   </si>
   <si>
-    <t>-0.950 - 0.001 - 1.251</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1. Population coverage</t>
   </si>
   <si>
@@ -197,9 +158,6 @@
     <t>1.130</t>
   </si>
   <si>
-    <t>-1.125 - -0.168 - 1.130</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2. Continuity of care</t>
   </si>
   <si>
@@ -209,9 +167,6 @@
     <t>1.527</t>
   </si>
   <si>
-    <t>-1.031 - 0.390 - 1.527</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3. Experience of care</t>
   </si>
   <si>
@@ -221,7 +176,13 @@
     <t>1.177</t>
   </si>
   <si>
-    <t>-1.331 - 0.024 - 1.177</t>
+    <t>50th ptile</t>
+  </si>
+  <si>
+    <t>90th ptile</t>
+  </si>
+  <si>
+    <t>10th</t>
   </si>
 </sst>
 </file>
@@ -573,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDE4A67-4CD9-4280-A076-38E68E581141}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -584,7 +545,7 @@
     <col min="1" max="1" width="63.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,270 +559,309 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>42.491</v>
+      </c>
+      <c r="F4">
+        <v>52.094999999999999</v>
+      </c>
+      <c r="G4">
+        <v>61.683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5">
+        <v>41.792000000000002</v>
+      </c>
+      <c r="F5">
+        <v>50.463999999999999</v>
+      </c>
+      <c r="G5">
+        <v>59.030999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6">
+        <v>28.975999999999999</v>
+      </c>
+      <c r="F6">
+        <v>40.457999999999998</v>
+      </c>
+      <c r="G6">
+        <v>51.244999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E8">
+        <v>57.654000000000003</v>
+      </c>
+      <c r="F8">
+        <v>79.766000000000005</v>
+      </c>
+      <c r="G8">
+        <v>93.802999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E9">
+        <v>69.652000000000001</v>
+      </c>
+      <c r="F9">
+        <v>76.346999999999994</v>
+      </c>
+      <c r="G9">
+        <v>84.981999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E10">
+        <v>87.296000000000006</v>
+      </c>
+      <c r="F10">
+        <v>93.641000000000005</v>
+      </c>
+      <c r="G10">
+        <v>97.373000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+      <c r="E12">
+        <v>20.07</v>
+      </c>
+      <c r="F12">
+        <v>51.722000000000001</v>
+      </c>
+      <c r="G12">
+        <v>124.815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E13">
+        <v>2.641</v>
+      </c>
+      <c r="F13">
+        <v>6.4390000000000001</v>
+      </c>
+      <c r="G13">
+        <v>12.757999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E14">
+        <v>-0.95</v>
+      </c>
+      <c r="F14">
+        <v>1E-3</v>
+      </c>
+      <c r="G14">
+        <v>1.2509999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E15">
+        <v>-1.125</v>
+      </c>
+      <c r="F15">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="G15">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16">
+        <v>-1.0309999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.39</v>
+      </c>
+      <c r="G16">
+        <v>1.5269999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
+      <c r="E17">
+        <v>-1.331</v>
+      </c>
+      <c r="F17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.177</v>
       </c>
     </row>
   </sheetData>
